--- a/biology/Zoologie/Hexacrobylidae/Hexacrobylidae.xlsx
+++ b/biology/Zoologie/Hexacrobylidae/Hexacrobylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hexacrobylidae sont une famille de tuniciers, membres de l'ordre monotypique des Aspiraculata de la classe monotypique des Sorberacea.
-Ces taxons ont été déclarés invalides lors de la révision en 2007 de la taxonomie des Tunicata. Les membres de la famille des Hexacrobylidae ont été assignés à la famille des Molgulidae, classe des Ascidiacea[1],[2].
+Ces taxons ont été déclarés invalides lors de la révision en 2007 de la taxonomie des Tunicata. Les membres de la famille des Hexacrobylidae ont été assignés à la famille des Molgulidae, classe des Ascidiacea,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sorberacea sont des tuniciers benthiques, qui ressemblent aux ascidies. Les caractéristiques qui les différencient de ces dernières sont : un pharynx réduit, une rétention du tube neural au stade adulte, la position superficielle des ganglions nerveux et une histologie particulière des cellules de l'appareil digestif. Leur siphon inhalent est large et entouré de six large lobes, tandis que leur siphon exhalent est petit. Ils mesurent de 2 à 6 cm.
 </t>
@@ -543,10 +557,12 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de ce taxon ne sont pas des filtreurs. Ils se nourrissent d'invertébrés tels que des nématodes ou des petits crustacés qu'ils capturent.
-Ce sont des animaux solitaires que l'on trouve seulement dans les abysses[3].
+Ce sont des animaux solitaires que l'on trouve seulement dans les abysses.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ordre Aspiraculata
 Famille Hexacrobylidae
